--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276621</v>
+        <v>373308.7577998814</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1692,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,28 +1806,28 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,31 +1843,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2363,16 +2365,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>129.324069905679</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.2801141926743</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S30" t="n">
-        <v>125.5314208766508</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2968,52 +2970,52 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17.38540584383043</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="40">
@@ -3679,34 +3681,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3824,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>67.32262867799703</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.86547882798917</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>46.79470495664741</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V2" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W2" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1178524655551</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>83.13413836268582</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3355078473624</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U12" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V12" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C14" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W14" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>10.49611583993489</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U16" t="n">
-        <v>10.49611583993489</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V16" t="n">
-        <v>10.49611583993489</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>4.284706443124001</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>134.6031257566472</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>176.5286895169144</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>131.9507376187037</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
         <v>231.8830517671884</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>911.8125548258105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>700.6811714053606</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>475.3318284112885</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>475.3318284112885</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>231.8830517671884</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W20" t="n">
-        <v>231.8830517671884</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y20" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C21" t="n">
-        <v>110.334904905842</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D21" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
         <v>110.334904905842</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V23" t="n">
-        <v>274.0360370837871</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W23" t="n">
-        <v>274.0360370837871</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X23" t="n">
-        <v>274.0360370837871</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6104,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="C26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="D26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>124.6145917896818</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C27" t="n">
-        <v>124.6145917896818</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D27" t="n">
-        <v>124.6145917896818</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>124.6145917896818</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>124.6145917896818</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6499,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S30" t="n">
-        <v>736.0882110366019</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T30" t="n">
-        <v>736.0882110366019</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>736.0882110366019</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>736.0882110366019</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>492.6394343925018</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>36.84215911408185</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>360.2295980564601</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6874,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.32787816303323</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>82.32787816303323</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
         <v>31.35113235729608</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7263,10 +7265,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y39" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>707.0094349923255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>468.1548961435668</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>945.8639738410842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>771.4109445599572</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>622.4765348987059</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>463.2390798932504</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>316.7045219201354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>177.973696502751</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>18.91727947682168</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>253.01861300249</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>487.1199465281584</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>721.2212800538267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>903.8647576671776</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W42" t="n">
-        <v>945.8639738410842</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X42" t="n">
-        <v>945.8639738410842</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y42" t="n">
-        <v>945.8639738410842</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>79.95943146291799</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>213.083079827416</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>66.54852185430101</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>40.77139327069581</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>13.245045875396</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>13.245045875396</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>258.0743794427063</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>182.4052247667352</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>273.750943367713</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>380.4372586871459</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2037335653947</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23303,16 +23305,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23352,10 +23354,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23458,19 +23460,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>276.3414769952266</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
-        <v>319.8175627926938</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23540,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23580,16 +23582,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23625,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,28 +23694,28 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23911,7 +23913,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24014,25 +24016,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>375.044882499874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>115.2702034285012</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24342,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>18.1209956589598</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>33.0634029705363</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24604,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>174.0429600055611</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S30" t="n">
-        <v>46.15175022718705</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>140.2596746115705</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,13 +25095,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,10 +25156,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25363,13 +25365,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.9551956315293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25406,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25521,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="40">
@@ -25567,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.454594623674</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25712,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>44.91281555849943</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.6677048218782</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>90.54881220656323</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770132</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042948</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.53968261262</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261262</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="N2" t="n">
         <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
-        <v>90796.17800832074</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>65132.53968261261</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26448,16 +26450,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449411</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800375</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866135</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866135</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.54779918658</v>
+        <v>14225.15515865641</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.02308880369</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="I6" t="n">
         <v>68187.59005912875</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532491</v>
+        <v>56640.67194913786</v>
       </c>
       <c r="K6" t="n">
+        <v>68187.59005912874</v>
+      </c>
+      <c r="L6" t="n">
         <v>68187.59005912875</v>
       </c>
-      <c r="L6" t="n">
-        <v>68187.59005912874</v>
-      </c>
       <c r="M6" t="n">
-        <v>68187.59005912874</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="N6" t="n">
         <v>68187.59005912876</v>
       </c>
       <c r="O6" t="n">
-        <v>67930.15896609983</v>
+        <v>20807.71184166495</v>
       </c>
       <c r="P6" t="n">
-        <v>56760.20759488329</v>
+        <v>68187.59005912876</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330016</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.42345068071371</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>37.98452839772582</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998814</v>
+        <v>267779.7902310984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514373</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956402</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5764697.373081758</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F5" t="n">
-        <v>16.93162886246722</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>196.5315760613044</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>44.13217237922859</v>
+        <v>42.44279010296718</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>38.87161743162455</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.963519943866542</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
+      <c r="G17" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="18">
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>116.2794351611294</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2043,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2180,10 +2180,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>41.41746221848938</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,49 +2484,49 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>202.2946864288972</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>129.324069905679</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,58 +2721,58 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.79900896488251</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>221.2829015629797</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>112.2956661798583</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>50.05769526855297</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.57566235103577</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3751,64 +3751,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="V42" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>46.79470495664741</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>90.91227510121089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4370741486873</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4370741486873</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4370741486873</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>131.9507376187037</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>131.9507376187037</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>579.5529687867247</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>579.5529687867247</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>92.68647758675968</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>747.7683058067928</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>747.7683058067928</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>747.7683058067928</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>137.2644294849704</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>137.2644294849704</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>164.0357260466543</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>25.30490062926984</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>134.6031257566472</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>134.6031257566472</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>131.9507376187037</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>87.37278572049297</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>42.79483382228227</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="19">
@@ -5691,13 +5691,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>962.2293816994886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>754.0059980678517</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>579.5529687867247</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5870,13 +5870,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>922.2213350879197</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>922.2213350879197</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>922.2213350879197</v>
       </c>
     </row>
     <row r="22">
@@ -5937,10 +5937,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6022,19 +6022,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V23" t="n">
         <v>559.1338160830064</v>
       </c>
-      <c r="V23" t="n">
-        <v>315.6850394389064</v>
-      </c>
       <c r="W23" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y23" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6265,13 +6265,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>414.6641751762832</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X27" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y27" t="n">
-        <v>582.8795121963512</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
         <v>231.8830517671884</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>933.9571464551993</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6660,7 +6660,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="34">
@@ -6888,10 +6888,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="37">
@@ -7125,13 +7125,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y38" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7283,19 +7283,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2696759935595</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>75.41817578802664</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7499,10 +7499,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V42" t="n">
-        <v>852.7947480059265</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>609.3459713618265</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.2549444941228</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>521.2549444941228</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>372.3205348328715</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E45" t="n">
-        <v>213.083079827416</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F45" t="n">
-        <v>66.54852185430101</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7730,16 +7730,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.3308283893217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,19 +9959,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,7 +10916,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.8594832468445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F5" t="n">
-        <v>389.9444168792442</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>368.0044283100869</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>36.26901108812089</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23387,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>207.562810781691</v>
+        <v>209.2521930579524</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>110.9975005095251</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>106.2719242926299</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23706,16 +23706,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>242.1868569772623</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23819,10 +23819,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>41.36564529427154</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23931,16 +23931,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,10 +24068,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>210.2775209424302</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24177,13 +24177,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.6162833128638</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24338,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,16 +24451,16 @@
         <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>62.82012828698558</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.1209956589598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24572,16 +24572,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>174.0429600055611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>226.8698513616065</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>70.35882518776062</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>4.658480517995145</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,10 +24970,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>54.23751747000904</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25128,13 +25128,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>46.84073538823441</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25523,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>150.1070334262686</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,13 +25760,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="V42" t="n">
-        <v>122.6508037197627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>56.94228378966251</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>90.54881220656323</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770132</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
@@ -26340,22 +26340,22 @@
         <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245946</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908829</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866135</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866135</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865641</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913786</v>
+        <v>-7090.363160017951</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908826</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330019</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.34905430330016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37636,7 +37636,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310984</v>
+        <v>361972.0568565575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514373</v>
+        <v>2114249.189782365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.373081758</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>29.88929839105575</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707974</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>196.5315760613044</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>42.44279010296718</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5.963519943866542</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="E18" t="n">
-        <v>116.2794351611294</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>66.08036942169961</v>
       </c>
       <c r="W21" t="n">
-        <v>41.41746221848938</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>221.2829015629797</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3046,7 +3046,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.2956661798583</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>159.3125043259865</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>117.6168938316385</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>82.69355372315663</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4134,70 +4134,70 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>485.167420504237</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.5529687867247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C12" t="n">
-        <v>579.5529687867247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D12" t="n">
-        <v>430.6185591254734</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E12" t="n">
-        <v>271.3811041200179</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>747.7683058067928</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X12" t="n">
-        <v>747.7683058067928</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y12" t="n">
-        <v>747.7683058067928</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>310.5702840197694</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C15" t="n">
-        <v>310.5702840197694</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D15" t="n">
-        <v>310.5702840197694</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E15" t="n">
-        <v>310.5702840197694</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F15" t="n">
-        <v>164.0357260466543</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>25.30490062926984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>518.4217842253022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>310.5702840197694</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y15" t="n">
-        <v>310.5702840197694</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5551,16 +5551,16 @@
         <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>283.2696759935595</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C18" t="n">
-        <v>283.2696759935595</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D18" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>526.7184526376595</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2696759935595</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X18" t="n">
-        <v>283.2696759935595</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y18" t="n">
-        <v>283.2696759935595</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>754.0059980678517</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C21" t="n">
-        <v>579.5529687867247</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6185591254734</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="W21" t="n">
-        <v>922.2213350879197</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="X21" t="n">
-        <v>922.2213350879197</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y21" t="n">
-        <v>922.2213350879197</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="22">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>559.1338160830064</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>559.1338160830064</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X23" t="n">
-        <v>559.1338160830064</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="24">
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6098,19 +6098,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6174,7 +6174,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6308,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6338,19 +6338,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W27" t="n">
-        <v>298.4948343740486</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X27" t="n">
-        <v>298.4948343740486</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6420,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>437.1829490354398</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>437.1829490354398</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>193.7341723913397</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>761.8705608694022</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257.2326523711826</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="C36" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711826</v>
+        <v>109.8523314442283</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>845.2522122463549</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W41" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="V41" t="n">
+      <c r="X41" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="Y41" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,22 +7517,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>678.3417187247995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7733,13 +7733,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
-        <v>369.8307175917693</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>303.774711870172</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>175.8836868124217</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22716,10 +22716,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22761,16 +22761,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22871,10 +22871,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>136.2759056302994</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22944,13 +22944,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22992,10 +22992,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="9">
@@ -23105,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>36.26901108812089</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,16 +23235,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>377.9951275246317</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23311,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>209.2521930579524</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>106.2719242926299</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23706,16 +23706,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23791,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>115.8369145239744</v>
       </c>
       <c r="E18" t="n">
-        <v>41.36564529427154</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>315.8939308547783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>166.7202177277256</v>
       </c>
       <c r="W21" t="n">
-        <v>210.2775209424302</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24414,10 +24414,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>62.82012828698558</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>312.84732328326</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24700,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>226.8698513616065</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>4.658480517995145</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24934,7 +24934,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>119.2616763733422</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.23751747000904</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25046,16 +25046,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>73.48808282343876</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,16 +25207,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>83.04302253764033</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>46.84073538823441</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25283,13 +25283,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>108.3244882493363</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,7 +25633,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25684,10 +25684,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="42">
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.2478283578182</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,13 +25949,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>56.94228378966251</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25994,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390692</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390692</v>
+        <v>358671.2447770132</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65754.15294315932</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="C2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="M2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245946</v>
+        <v>7172.021946512421</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908829</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.97943908827</v>
+        <v>21961.72795075667</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908827</v>
+        <v>55589.32795075665</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075665</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908829</v>
+        <v>13003.3540966524</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712474</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.363160017951</v>
+        <v>55418.87088713385</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908828</v>
+        <v>19585.91077966091</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.57943908826</v>
+        <v>66965.78899712471</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
-        <v>231.276337811895</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
